--- a/results/mp/tinybert/dilemma/confidence/126/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/tinybert/dilemma/confidence/126/stop-words-topk-masking-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="100">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,91 +43,103 @@
     <t>negative</t>
   </si>
   <si>
+    <t>creepy</t>
+  </si>
+  <si>
+    <t>horrible</t>
+  </si>
+  <si>
+    <t>terrifying</t>
+  </si>
+  <si>
+    <t>worst</t>
+  </si>
+  <si>
     <t>uncomfortable</t>
   </si>
   <si>
-    <t>horrible</t>
+    <t>dumb</t>
+  </si>
+  <si>
+    <t>wrong</t>
   </si>
   <si>
     <t>illegal</t>
   </si>
   <si>
-    <t>creepy</t>
-  </si>
-  <si>
-    <t>worst</t>
-  </si>
-  <si>
-    <t>terrifying</t>
+    <t>fucking</t>
   </si>
   <si>
     <t>evil</t>
   </si>
   <si>
+    <t>dangerous</t>
+  </si>
+  <si>
+    <t>disturbing</t>
+  </si>
+  <si>
+    <t>weird</t>
+  </si>
+  <si>
+    <t>boring</t>
+  </si>
+  <si>
+    <t>hate</t>
+  </si>
+  <si>
+    <t>sorry</t>
+  </si>
+  <si>
+    <t>addicted</t>
+  </si>
+  <si>
+    <t>dark</t>
+  </si>
+  <si>
+    <t>insane</t>
+  </si>
+  <si>
+    <t>sick</t>
+  </si>
+  <si>
     <t>stupid</t>
   </si>
   <si>
-    <t>wrong</t>
-  </si>
-  <si>
-    <t>fucking</t>
-  </si>
-  <si>
-    <t>dumb</t>
-  </si>
-  <si>
-    <t>dangerous</t>
-  </si>
-  <si>
-    <t>weird</t>
+    <t>guilty</t>
+  </si>
+  <si>
+    <t>shit</t>
   </si>
   <si>
     <t>fucked</t>
   </si>
   <si>
-    <t>boring</t>
+    <t>crazy</t>
   </si>
   <si>
     <t>scary</t>
   </si>
   <si>
-    <t>addicted</t>
+    <t>bad</t>
+  </si>
+  <si>
+    <t>behind</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
   <si>
     <t>fuck</t>
   </si>
   <si>
-    <t>hate</t>
-  </si>
-  <si>
-    <t>disturbing</t>
-  </si>
-  <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>bad</t>
-  </si>
-  <si>
-    <t>crazy</t>
-  </si>
-  <si>
-    <t>false</t>
-  </si>
-  <si>
-    <t>behind</t>
-  </si>
-  <si>
-    <t>dark</t>
-  </si>
-  <si>
-    <t>destroying</t>
+    <t>shocking</t>
   </si>
   <si>
     <t>seriously</t>
   </si>
   <si>
-    <t>frightening</t>
+    <t>shocked</t>
   </si>
   <si>
     <t>serious</t>
@@ -139,9 +151,6 @@
     <t>fake</t>
   </si>
   <si>
-    <t>long</t>
-  </si>
-  <si>
     <t>[UNK]</t>
   </si>
   <si>
@@ -151,34 +160,43 @@
     <t>amazing</t>
   </si>
   <si>
+    <t>brilliant</t>
+  </si>
+  <si>
     <t>great</t>
   </si>
   <si>
-    <t>brilliant</t>
-  </si>
-  <si>
     <t>best</t>
   </si>
   <si>
+    <t>happy</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>better</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>important</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
     <t>powerful</t>
   </si>
   <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>free</t>
   </si>
   <si>
     <t>thanks</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>important</t>
+    <t>high</t>
   </si>
   <si>
     <t>love</t>
@@ -187,133 +205,109 @@
     <t>top</t>
   </si>
   <si>
-    <t>free</t>
+    <t>first</t>
+  </si>
+  <si>
+    <t>worth</t>
   </si>
   <si>
     <t>wow</t>
   </si>
   <si>
-    <t>first</t>
-  </si>
-  <si>
-    <t>okay</t>
-  </si>
-  <si>
-    <t>honestly</t>
-  </si>
-  <si>
-    <t>worth</t>
+    <t>online</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>whole</t>
+  </si>
+  <si>
+    <t>social</t>
   </si>
   <si>
     <t>live</t>
   </si>
   <si>
-    <t>social</t>
+    <t>right</t>
+  </si>
+  <si>
+    <t>many</t>
   </si>
   <si>
     <t>digital</t>
   </si>
   <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>whole</t>
-  </si>
-  <si>
-    <t>right</t>
-  </si>
-  <si>
-    <t>many</t>
+    <t>well</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>really</t>
+  </si>
+  <si>
+    <t>highly</t>
   </si>
   <si>
     <t>much</t>
   </si>
   <si>
-    <t>always</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>highly</t>
-  </si>
-  <si>
-    <t>really</t>
-  </si>
-  <si>
-    <t>well</t>
+    <t>please</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>world</t>
   </si>
   <si>
     <t>recommend</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>irony</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>use</t>
-  </si>
-  <si>
-    <t>finished</t>
-  </si>
-  <si>
-    <t>world</t>
+    <t>documentary</t>
   </si>
   <si>
     <t>netflix</t>
   </si>
   <si>
+    <t>twitter</t>
+  </si>
+  <si>
     <t>media</t>
   </si>
   <si>
+    <t>dilemma</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>watching</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
     <t>know</t>
   </si>
   <si>
-    <t>watching</t>
-  </si>
-  <si>
-    <t>documentary</t>
-  </si>
-  <si>
-    <t>twitter</t>
-  </si>
-  <si>
-    <t>dilemma</t>
-  </si>
-  <si>
-    <t>facebook</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>one</t>
+    <t>…</t>
   </si>
   <si>
     <t>watch</t>
   </si>
   <si>
-    <t>…</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
     <t>everyone</t>
   </si>
   <si>
-    <t>amp</t>
-  </si>
-  <si>
     <t>watched</t>
+  </si>
+  <si>
+    <t>must</t>
   </si>
   <si>
     <t>’</t>
@@ -677,7 +671,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q60"/>
+  <dimension ref="A1:Q56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -688,7 +682,7 @@
         <v>8</v>
       </c>
       <c r="J1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -767,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -799,10 +793,10 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -817,7 +811,7 @@
         <v>0</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -867,16 +861,16 @@
         <v>0</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K5">
-        <v>0.9399999999999999</v>
+        <v>0.9090909090909091</v>
       </c>
       <c r="L5">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="M5">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -888,7 +882,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -896,13 +890,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.9230769230769231</v>
+        <v>0.9848484848484849</v>
       </c>
       <c r="C6">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="D6">
-        <v>96</v>
+        <v>65</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -914,19 +908,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K6">
-        <v>0.9090909090909091</v>
+        <v>0.9</v>
       </c>
       <c r="L6">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="M6">
-        <v>10</v>
+        <v>45</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -938,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -946,13 +940,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.9090909090909091</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="D7">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -964,19 +958,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K7">
-        <v>0.8666666666666667</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -988,7 +982,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -996,13 +990,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.9</v>
+        <v>0.9333333333333333</v>
       </c>
       <c r="C8">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="D8">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -1014,19 +1008,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K8">
-        <v>0.8421052631578947</v>
+        <v>0.8</v>
       </c>
       <c r="L8">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="M8">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1038,7 +1032,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1046,13 +1040,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.8787878787878788</v>
+        <v>0.9</v>
       </c>
       <c r="C9">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D9">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1064,19 +1058,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K9">
-        <v>0.7333333333333333</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="L9">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="M9">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1088,7 +1082,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1096,13 +1090,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.8461538461538461</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="C10">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D10">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1117,7 +1111,7 @@
         <v>2</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K10">
         <v>0.7241379310344828</v>
@@ -1146,13 +1140,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.8333333333333334</v>
+        <v>0.875</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="D11">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1164,19 +1158,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K11">
-        <v>0.7222222222222222</v>
+        <v>0.7066666666666667</v>
       </c>
       <c r="L11">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="M11">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1188,7 +1182,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>5</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1196,7 +1190,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.8235294117647058</v>
+        <v>0.875</v>
       </c>
       <c r="C12">
         <v>14</v>
@@ -1214,19 +1208,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K12">
-        <v>0.7017543859649122</v>
+        <v>0.7</v>
       </c>
       <c r="L12">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="M12">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1238,7 +1232,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1246,13 +1240,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.8125</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="C13">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D13">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1264,19 +1258,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K13">
-        <v>0.7</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="M13">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1288,7 +1282,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1296,13 +1290,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.8</v>
+        <v>0.8421052631578947</v>
       </c>
       <c r="C14">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1314,19 +1308,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K14">
-        <v>0.6666666666666666</v>
+        <v>0.631578947368421</v>
       </c>
       <c r="L14">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="M14">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1338,7 +1332,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1346,13 +1340,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.7894736842105263</v>
+        <v>0.8125</v>
       </c>
       <c r="C15">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D15">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1364,19 +1358,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K15">
-        <v>0.6296296296296297</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="L15">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="M15">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1388,7 +1382,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1417,16 +1411,16 @@
         <v>3</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K16">
-        <v>0.6153846153846154</v>
+        <v>0.6111111111111112</v>
       </c>
       <c r="L16">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="M16">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1438,7 +1432,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1446,13 +1440,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.7647058823529411</v>
+        <v>0.75</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D17">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1464,19 +1458,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K17">
-        <v>0.6153846153846154</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M17">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1499,10 +1493,10 @@
         <v>0.75</v>
       </c>
       <c r="C18">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D18">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1514,19 +1508,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K18">
-        <v>0.5833333333333334</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L18">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="M18">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1538,7 +1532,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1546,13 +1540,13 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.6884057971014492</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="C19">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="D19">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1564,19 +1558,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K19">
-        <v>0.5757575757575758</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="L19">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="M19">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1588,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>14</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1596,13 +1590,13 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.675</v>
+        <v>0.725</v>
       </c>
       <c r="C20">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D20">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1614,19 +1608,19 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K20">
-        <v>0.5</v>
+        <v>0.4848484848484849</v>
       </c>
       <c r="L20">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="M20">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1638,7 +1632,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1646,13 +1640,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.6521739130434783</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="C21">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D21">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1667,16 +1661,16 @@
         <v>8</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="K21">
-        <v>0.4</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L21">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="M21">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1688,7 +1682,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1696,13 +1690,13 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.65</v>
+        <v>0.7</v>
       </c>
       <c r="C22">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1714,19 +1708,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K22">
-        <v>0.3888888888888889</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="L22">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="M22">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1738,7 +1732,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>22</v>
+        <v>28</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1746,13 +1740,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.625</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C23">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D23">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1764,19 +1758,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K23">
-        <v>0.3478260869565217</v>
+        <v>0.391304347826087</v>
       </c>
       <c r="L23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M23">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1788,7 +1782,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1796,13 +1790,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.6170212765957447</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C24">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D24">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1814,19 +1808,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K24">
-        <v>0.3278688524590164</v>
+        <v>0.3684210526315789</v>
       </c>
       <c r="L24">
-        <v>360</v>
+        <v>7</v>
       </c>
       <c r="M24">
-        <v>360</v>
+        <v>7</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1838,7 +1832,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>738</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1846,13 +1840,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.5641025641025641</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="C25">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D25">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1864,13 +1858,13 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K25">
-        <v>0.3214285714285715</v>
+        <v>0.3461538461538461</v>
       </c>
       <c r="L25">
         <v>9</v>
@@ -1888,7 +1882,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1896,13 +1890,13 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.5428571428571428</v>
+        <v>0.6595744680851063</v>
       </c>
       <c r="C26">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D26">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1917,16 +1911,16 @@
         <v>16</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K26">
-        <v>0.3157894736842105</v>
+        <v>0.3078324225865209</v>
       </c>
       <c r="L26">
-        <v>6</v>
+        <v>338</v>
       </c>
       <c r="M26">
-        <v>6</v>
+        <v>338</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1938,7 +1932,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>13</v>
+        <v>760</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1946,13 +1940,13 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.5416666666666666</v>
+        <v>0.6470588235294118</v>
       </c>
       <c r="C27">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D27">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1964,19 +1958,19 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K27">
-        <v>0.3076923076923077</v>
+        <v>0.3043478260869565</v>
       </c>
       <c r="L27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="M27">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1988,7 +1982,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1996,13 +1990,13 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.5384615384615384</v>
+        <v>0.6285714285714286</v>
       </c>
       <c r="C28">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="D28">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -2014,10 +2008,10 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K28">
         <v>0.2962962962962963</v>
@@ -2046,13 +2040,13 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.5</v>
+        <v>0.6231884057971014</v>
       </c>
       <c r="C29">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="D29">
-        <v>14</v>
+        <v>86</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -2064,10 +2058,10 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K29">
         <v>0.2926829268292683</v>
@@ -2096,13 +2090,13 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.5</v>
+        <v>0.6153846153846154</v>
       </c>
       <c r="C30">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="D30">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -2114,19 +2108,19 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K30">
-        <v>0.2923076923076923</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="L30">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="M30">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -2138,7 +2132,7 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>46</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -2146,38 +2140,38 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.4642857142857143</v>
+        <v>0.5769230769230769</v>
       </c>
       <c r="C31">
+        <v>15</v>
+      </c>
+      <c r="D31">
+        <v>15</v>
+      </c>
+      <c r="E31">
+        <v>0</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="b">
+        <v>0</v>
+      </c>
+      <c r="H31">
+        <v>11</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="K31">
+        <v>0.2826086956521739</v>
+      </c>
+      <c r="L31">
         <v>13</v>
       </c>
-      <c r="D31">
+      <c r="M31">
         <v>13</v>
       </c>
-      <c r="E31">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>1</v>
-      </c>
-      <c r="G31" t="b">
-        <v>0</v>
-      </c>
-      <c r="H31">
-        <v>15</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="K31">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="L31">
-        <v>6</v>
-      </c>
-      <c r="M31">
-        <v>6</v>
-      </c>
       <c r="N31">
         <v>1</v>
       </c>
@@ -2188,7 +2182,7 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>15</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -2196,13 +2190,13 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.4615384615384616</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="C32">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D32">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -2214,19 +2208,19 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K32">
-        <v>0.2711864406779661</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="L32">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M32">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2238,7 +2232,7 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -2246,13 +2240,13 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.3809523809523809</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="C33">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D33">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E33">
         <v>0</v>
@@ -2264,19 +2258,19 @@
         <v>0</v>
       </c>
       <c r="H33">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K33">
-        <v>0.2295081967213115</v>
+        <v>0.2210526315789474</v>
       </c>
       <c r="L33">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="M33">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2288,7 +2282,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>47</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -2296,13 +2290,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.3571428571428572</v>
+        <v>0.5</v>
       </c>
       <c r="C34">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D34">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -2314,19 +2308,19 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K34">
-        <v>0.2210526315789474</v>
+        <v>0.2131147540983606</v>
       </c>
       <c r="L34">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="M34">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2338,7 +2332,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>74</v>
+        <v>48</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -2346,37 +2340,37 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.2051282051282051</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C35">
+        <v>12</v>
+      </c>
+      <c r="D35">
+        <v>12</v>
+      </c>
+      <c r="E35">
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="b">
+        <v>0</v>
+      </c>
+      <c r="H35">
         <v>16</v>
       </c>
-      <c r="D35">
-        <v>16</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>1</v>
-      </c>
-      <c r="G35" t="b">
-        <v>0</v>
-      </c>
-      <c r="H35">
-        <v>62</v>
-      </c>
       <c r="J35" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K35">
-        <v>0.2173913043478261</v>
+        <v>0.2</v>
       </c>
       <c r="L35">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="M35">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2388,7 +2382,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>36</v>
+        <v>52</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -2396,13 +2390,13 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.2</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C36">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D36">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E36">
         <v>0</v>
@@ -2414,19 +2408,19 @@
         <v>0</v>
       </c>
       <c r="H36">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K36">
-        <v>0.2117647058823529</v>
+        <v>0.1780821917808219</v>
       </c>
       <c r="L36">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="M36">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2438,7 +2432,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>67</v>
+        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -2446,63 +2440,87 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.05423728813559322</v>
+        <v>0.4285714285714285</v>
       </c>
       <c r="C37">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D37">
+        <v>9</v>
+      </c>
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>12</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="K37">
+        <v>0.1549295774647887</v>
+      </c>
+      <c r="L37">
+        <v>11</v>
+      </c>
+      <c r="M37">
+        <v>11</v>
+      </c>
+      <c r="N37">
+        <v>1</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q37">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17">
+      <c r="A38" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B38">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="C38">
+        <v>8</v>
+      </c>
+      <c r="D38">
+        <v>8</v>
+      </c>
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="b">
+        <v>0</v>
+      </c>
+      <c r="H38">
         <v>20</v>
       </c>
-      <c r="E37">
-        <v>0.2</v>
-      </c>
-      <c r="F37">
-        <v>0.8</v>
-      </c>
-      <c r="G37" t="b">
-        <v>1</v>
-      </c>
-      <c r="H37">
-        <v>279</v>
-      </c>
-      <c r="J37" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="K37">
-        <v>0.2054794520547945</v>
-      </c>
-      <c r="L37">
-        <v>15</v>
-      </c>
-      <c r="M37">
-        <v>15</v>
-      </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-      <c r="O37">
-        <v>0</v>
-      </c>
-      <c r="P37" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q37">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:17">
       <c r="J38" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K38">
-        <v>0.1830985915492958</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="L38">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="M38">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2514,21 +2532,45 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>58</v>
+        <v>46</v>
       </c>
     </row>
     <row r="39" spans="1:17">
+      <c r="A39" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B39">
+        <v>0.1794871794871795</v>
+      </c>
+      <c r="C39">
+        <v>14</v>
+      </c>
+      <c r="D39">
+        <v>14</v>
+      </c>
+      <c r="E39">
+        <v>0</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>64</v>
+      </c>
       <c r="J39" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K39">
-        <v>0.18</v>
+        <v>0.1194029850746269</v>
       </c>
       <c r="L39">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="M39">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="N39">
         <v>1</v>
@@ -2540,21 +2582,45 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="40" spans="1:17">
+      <c r="A40" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B40">
+        <v>0.0584192439862543</v>
+      </c>
+      <c r="C40">
+        <v>17</v>
+      </c>
+      <c r="D40">
+        <v>25</v>
+      </c>
+      <c r="E40">
+        <v>0.32</v>
+      </c>
+      <c r="F40">
+        <v>0.6799999999999999</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>274</v>
+      </c>
       <c r="J40" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K40">
-        <v>0.1666666666666667</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L40">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="M40">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2566,21 +2632,21 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>45</v>
+        <v>75</v>
       </c>
     </row>
     <row r="41" spans="1:17">
       <c r="J41" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K41">
-        <v>0.1538461538461539</v>
+        <v>0.09540636042402827</v>
       </c>
       <c r="L41">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="M41">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2592,21 +2658,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>44</v>
+        <v>256</v>
       </c>
     </row>
     <row r="42" spans="1:17">
       <c r="J42" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K42">
-        <v>0.12</v>
+        <v>0.09259259259259259</v>
       </c>
       <c r="L42">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="M42">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2618,21 +2684,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>44</v>
+        <v>490</v>
       </c>
     </row>
     <row r="43" spans="1:17">
       <c r="J43" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K43">
-        <v>0.1044776119402985</v>
+        <v>0.08759124087591241</v>
       </c>
       <c r="L43">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="M43">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2644,47 +2710,47 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>60</v>
+        <v>125</v>
       </c>
     </row>
     <row r="44" spans="1:17">
       <c r="J44" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K44">
-        <v>0.1037037037037037</v>
+        <v>0.07843137254901961</v>
       </c>
       <c r="L44">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="M44">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>484</v>
+        <v>611</v>
       </c>
     </row>
     <row r="45" spans="1:17">
       <c r="J45" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K45">
-        <v>0.09939759036144578</v>
+        <v>0.0761904761904762</v>
       </c>
       <c r="L45">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="M45">
-        <v>66</v>
+        <v>24</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2696,21 +2762,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>598</v>
+        <v>291</v>
       </c>
     </row>
     <row r="46" spans="1:17">
       <c r="J46" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K46">
-        <v>0.09565217391304348</v>
+        <v>0.07339449541284404</v>
       </c>
       <c r="L46">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="M46">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2722,21 +2788,21 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:17">
       <c r="J47" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K47">
-        <v>0.093841642228739</v>
+        <v>0.07331378299120235</v>
       </c>
       <c r="L47">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="M47">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="N47">
         <v>1</v>
@@ -2748,21 +2814,21 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>309</v>
+        <v>316</v>
       </c>
     </row>
     <row r="48" spans="1:17">
       <c r="J48" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K48">
-        <v>0.09187279151943463</v>
+        <v>0.06521739130434782</v>
       </c>
       <c r="L48">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="M48">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2774,21 +2840,21 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>257</v>
+        <v>86</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K49">
-        <v>0.08029197080291971</v>
+        <v>0.06086956521739131</v>
       </c>
       <c r="L49">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="M49">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2800,21 +2866,21 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>126</v>
+        <v>108</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K50">
-        <v>0.07936507936507936</v>
+        <v>0.06048387096774194</v>
       </c>
       <c r="L50">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="M50">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="N50">
         <v>1</v>
@@ -2826,21 +2892,21 @@
         <v>0</v>
       </c>
       <c r="Q50">
-        <v>290</v>
+        <v>1631</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K51">
-        <v>0.0759493670886076</v>
+        <v>0.05519480519480519</v>
       </c>
       <c r="L51">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="M51">
-        <v>6</v>
+        <v>34</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2852,241 +2918,137 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>73</v>
+        <v>582</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K52">
-        <v>0.06593406593406594</v>
+        <v>0.04964539007092199</v>
       </c>
       <c r="L52">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M52">
         <v>7</v>
       </c>
       <c r="N52">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="O52">
-        <v>0.14</v>
+        <v>0</v>
       </c>
       <c r="P52" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q52">
-        <v>85</v>
+        <v>134</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K53">
-        <v>0.06422018348623854</v>
+        <v>0.04529616724738676</v>
       </c>
       <c r="L53">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="M53">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.93</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>102</v>
+        <v>274</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K54">
-        <v>0.06178861788617886</v>
+        <v>0.04347826086956522</v>
       </c>
       <c r="L54">
-        <v>38</v>
+        <v>7</v>
       </c>
       <c r="M54">
-        <v>39</v>
+        <v>7</v>
       </c>
       <c r="N54">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O54">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P54" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>577</v>
+        <v>154</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="K55">
-        <v>0.0594002306805075</v>
+        <v>0.03457106274007683</v>
       </c>
       <c r="L55">
-        <v>103</v>
+        <v>27</v>
       </c>
       <c r="M55">
-        <v>105</v>
+        <v>27</v>
       </c>
       <c r="N55">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O55">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P55" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q55">
-        <v>1631</v>
+        <v>754</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>96</v>
+        <v>45</v>
       </c>
       <c r="K56">
-        <v>0.05555555555555555</v>
+        <v>0.02836879432624113</v>
       </c>
       <c r="L56">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="M56">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="N56">
-        <v>1</v>
+        <v>0.32</v>
       </c>
       <c r="O56">
-        <v>0</v>
+        <v>0.6799999999999999</v>
       </c>
       <c r="P56" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q56">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="57" spans="10:17">
-      <c r="J57" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="K57">
-        <v>0.04964539007092199</v>
-      </c>
-      <c r="L57">
-        <v>7</v>
-      </c>
-      <c r="M57">
-        <v>7</v>
-      </c>
-      <c r="N57">
-        <v>1</v>
-      </c>
-      <c r="O57">
-        <v>0</v>
-      </c>
-      <c r="P57" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q57">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="58" spans="10:17">
-      <c r="J58" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="K58">
-        <v>0.04651162790697674</v>
-      </c>
-      <c r="L58">
-        <v>6</v>
-      </c>
-      <c r="M58">
-        <v>6</v>
-      </c>
-      <c r="N58">
-        <v>1</v>
-      </c>
-      <c r="O58">
-        <v>0</v>
-      </c>
-      <c r="P58" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q58">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="59" spans="10:17">
-      <c r="J59" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="K59">
-        <v>0.03157894736842105</v>
-      </c>
-      <c r="L59">
-        <v>9</v>
-      </c>
-      <c r="M59">
-        <v>12</v>
-      </c>
-      <c r="N59">
-        <v>0.75</v>
-      </c>
-      <c r="O59">
-        <v>0.25</v>
-      </c>
-      <c r="P59" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q59">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="60" spans="10:17">
-      <c r="J60" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="K60">
-        <v>0.03076923076923077</v>
-      </c>
-      <c r="L60">
-        <v>24</v>
-      </c>
-      <c r="M60">
-        <v>25</v>
-      </c>
-      <c r="N60">
-        <v>0.96</v>
-      </c>
-      <c r="O60">
-        <v>0.04000000000000004</v>
-      </c>
-      <c r="P60" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q60">
-        <v>756</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>
